--- a/data/2023/fid/FID-MATHE-DE-7.xlsx
+++ b/data/2023/fid/FID-MATHE-DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="343">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -133,10 +133,10 @@
     <t>KW;LF</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>DE-4;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-M347;DE-19;DE-210;DE-862;DE-1043;DE-20;DE-863;DE-955;DE-21;DE-24;DE-Frei129;DE-Ofb1;DE-Fn1;DE-25;DE-Frei160;DE-Frei26;DE-26;DE-1052;DE-92;DE-29;DE-946;DE-43;DE-66;DE-83;DE-90;DE-1028;DE-91;DE-93;DE-Stg259;DE-100;DE-105;DE-953;DE-180;DE-Mh39;DE-Hed2;DE-289;DE-291;DE-Sa18;DE-Sa16;DE-352;DE-898;DE-1050;DE-355;DE-1046;DE-Aug4;DE-859;DE-384;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-860;DE-824;DE-573;DE-D142;DE-Gla1;DE-D161;DE-D275;DE-Bn3;DE-Rs1;DE-L229;DE-Ch1;DE-752;DE-Lg1;DE-753;DE-972;DE-634;DE-Rav1;DE-Kon4;DE-1147;DE-1090;DE-950;DE-958;DE-Rt2;DE-944;DE-747;DE-991;DE-941;DE-D120;DE-520;DE-Zwi2;DE-706;DE-522;DE-F197;DE-L189;DE-525;DE-60;DE-He76;DE-Rt3;DE-526;DE-523;DE-751;DE-1866;DE-Stg258;DE-Mh35;DE-2083;DE-840</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DE-4;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-M347;DE-19;DE-210;DE-862;DE-1043;DE-20;DE-863;DE-955;DE-21;DE-24;DE-Frei129;DE-Ofb1;DE-Fn1;DE-25;DE-Frei160;DE-Frei26;DE-26;DE-1052;DE-92;DE-29;DE-946;DE-43;DE-66;DE-83;DE-90;DE-1028;DE-91;DE-93;DE-Stg259;DE-100;DE-105;DE-953;DE-180;DE-Mh39;DE-Hed2;DE-289;DE-291;DE-Sa18;DE-Sa16;DE-352;DE-898;DE-1050;DE-355;DE-1046;DE-Aug4;DE-859;DE-384;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-860;DE-824;DE-573;DE-D142;DE-Gla1;DE-Ch1;DE-752;DE-Lg1;DE-753;DE-972;DE-634;DE-Rav1;DE-Kon4;DE-1147;DE-1090;DE-950;DE-958;DE-Rt2;DE-944;DE-747;DE-991;DE-941;DE-D120;DE-520;DE-Zwi2;DE-706;DE-522;DE-F197;DE-L189;DE-525;DE-60;DE-He76;DE-Rt3;DE-526;DE-523;DE-751;DE-1866;DE-Stg258;DE-Mh35;DE-2083;DE-840</t>
   </si>
   <si>
     <t>2397996-3</t>
@@ -187,10 +187,151 @@
     <t>x</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-19;DE-20;DE-83;DE-93;DE-180;DE-Sa18;DE-Ma9</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-19;DE-83;DE-93;DE-180;DE-Sa18;DE-Ma9</t>
+  </si>
+  <si>
+    <t>2037531-1</t>
+  </si>
+  <si>
+    <t>Algebraic &amp; geometric topology</t>
+  </si>
+  <si>
+    <t>Mathematical Sciences Publ.</t>
+  </si>
+  <si>
+    <t>Berkeley, Calif.</t>
+  </si>
+  <si>
+    <t>1472-2739</t>
+  </si>
+  <si>
+    <t>1.2001 -</t>
+  </si>
+  <si>
+    <t>https://msp.org/agt/2001/1-1/index.xhtml;http://ftp.gwdg.de/pub/EMIS/journals/UW/agt/index.html;https://projecteuclid.org/journals/algebraic-and-geometric-topology;http://www.bibliothek.uni-regensburg.de/ezeit/?2037531</t>
+  </si>
+  <si>
+    <t>KW;KW;KW</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-95;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-468;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+  </si>
+  <si>
+    <t>2041597-7</t>
+  </si>
+  <si>
+    <t>Bulletin of the Belgian Mathematical Society - Simon Stevin</t>
+  </si>
+  <si>
+    <t>Soc.</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>1.1994 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2041597;https://projecteuclid.org/journals/bulletin-of-the-belgian-mathematical-society-simon-stevin</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-25;DE-26;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-840</t>
+  </si>
+  <si>
+    <t>2043491-1</t>
+  </si>
+  <si>
+    <t>Topological methods in nonlinear analysis</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Toruń</t>
+  </si>
+  <si>
+    <t>1230-3429</t>
+  </si>
+  <si>
+    <t>1.1993 -</t>
+  </si>
+  <si>
+    <t>https://projecteuclid.org/tmna;http://kpbc.umk.pl/publication/7428;http://apcz.umk.pl/czasopisma/index.php/TMNA/issue/archive;https://www.tmna.ncu.pl/;http://www.bibliothek.uni-regensburg.de/ezeit/?2043491</t>
+  </si>
+  <si>
+    <t>KW;LF;KW</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DE-4;DE-12;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
+  </si>
+  <si>
+    <t>2043879-5</t>
+  </si>
+  <si>
+    <t>Hokkaido mathematical journal</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t>0385-4035</t>
+  </si>
+  <si>
+    <t>1.1972 -</t>
+  </si>
+  <si>
+    <t>https://projecteuclid.org/journals/hokkaido-mathematical-journal;https://www.math.sci.hokudai.ac.jp/hmj/information.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2043879</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+  </si>
+  <si>
+    <t>2044021-2</t>
+  </si>
+  <si>
+    <t>Notre Dame journal of formal logic</t>
+  </si>
+  <si>
+    <t>Duke Univ. Press</t>
+  </si>
+  <si>
+    <t>1939-0726</t>
+  </si>
+  <si>
+    <t>400;510</t>
+  </si>
+  <si>
+    <t>FID-MATHE-DE-7;7,11;7,1;FID-LING-DE-30</t>
+  </si>
+  <si>
+    <t>1.1960 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2044021;https://ProjectEuclid.org/ndjfl;https://www.dukeupress.edu/Notre-Dame-Journal-of-Formal-Logic;https://projecteuclid.org/ndjfl</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
   </si>
   <si>
     <t>2425248-7</t>
@@ -235,352 +376,412 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2430636;https://msp.org/involve;https://projecteuclid.org/involve</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-95;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+  </si>
+  <si>
+    <t>2064801-7</t>
+  </si>
+  <si>
+    <t>Abstract and applied analysis</t>
+  </si>
+  <si>
+    <t>Hindawi Publ. Corp.</t>
+  </si>
+  <si>
+    <t>Akron, Ohio</t>
+  </si>
+  <si>
+    <t>1687-0409</t>
+  </si>
+  <si>
+    <t>1.1996 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2064801;https://www.hindawi.com/journals/aaa/;https://projecteuclid.org/aaa</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>DE-4;DE-12;DE-16;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-943;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-573;DE-824;DE-150;DE-634;DE-991;DE-706;DE-523;DE-840</t>
+  </si>
+  <si>
+    <t>2461433-6</t>
+  </si>
+  <si>
+    <t>Analysis &amp; PDE</t>
+  </si>
+  <si>
+    <t>1948-206X</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2461433;https://msp.org/apde;https://projecteuclid.org/apde</t>
+  </si>
+  <si>
+    <t>2090365-0</t>
+  </si>
+  <si>
+    <t>nk;b</t>
+  </si>
+  <si>
+    <t>Publicacions matemàtiques</t>
+  </si>
+  <si>
+    <t>Universitat Autònoma de Barcelona, Servei de Publicacions;Publicacions de la Universitat Autònoma de Barcelona</t>
+  </si>
+  <si>
+    <t>Bellaterra</t>
+  </si>
+  <si>
+    <t>eng;spa</t>
+  </si>
+  <si>
+    <t>2014-4350</t>
+  </si>
+  <si>
+    <t>2436931-7</t>
+  </si>
+  <si>
+    <t>Volum 32, número 1 (any 1988)-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2090365;https://www.jstor.org/journal/publmate;http://mat.uab.es/pubmat/;https://projecteuclid.org/pm</t>
+  </si>
+  <si>
+    <t>KW;KW</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-8;DE-9;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-289;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-D120;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-751</t>
+  </si>
+  <si>
+    <t>2490756-X</t>
+  </si>
+  <si>
+    <t>Journal of commutative algebra</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Mathematics Consortium</t>
+  </si>
+  <si>
+    <t>Tempe, Ariz.</t>
+  </si>
+  <si>
+    <t>1939-2346</t>
+  </si>
+  <si>
+    <t>1.2009 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2490756;https://projecteuclid.org/jca;https://rmmc.asu.edu/jca/jca.html;https://www.jstor.org/journal/jcommalge</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-90;DE-91;DE-93;DE-180;DE-289;DE-Sa18;DE-291;DE-384;DE-473;DE-70;DE-517;DE-547;DE-700;DE-703;DE-824;DE-Hil2;DE-Ma9;DE-Ch1;DE-Wim2;DE-D120;DE-706;DE-523;DE-751</t>
+  </si>
+  <si>
+    <t>1411579-7</t>
+  </si>
+  <si>
+    <t>Geometry &amp; topology</t>
+  </si>
+  <si>
+    <t>1364-0380</t>
+  </si>
+  <si>
+    <t>1.1997 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?1411579;http://msp.warwick.ac.uk/gt/2014/18-02/;http://ftp.gwdg.de/pub/EMIS/journals/UW/gt/index.html;https://projecteuclid.org/gt;http://msp.org/gt/</t>
+  </si>
+  <si>
+    <t>DE-4;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-468;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-Ch1;DE-634;DE-706;DE-523</t>
+  </si>
+  <si>
+    <t>2196271-6</t>
+  </si>
+  <si>
+    <t>Tōhoku mathematical journal</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>Sendai</t>
+  </si>
+  <si>
+    <t>1881-2015</t>
+  </si>
+  <si>
+    <t>1.Ser. 1.1911/12 - 49.1942/43,2(Febr.); 2.Ser. 1.1949/50,März -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2196271;https://www.jstage.jst.go.jp/browse/tmj;https://ProjectEuclid.org/tmj;https://projecteuclid.org/tmj</t>
+  </si>
+  <si>
+    <t>LF;KW</t>
+  </si>
+  <si>
+    <t>2206845-4</t>
+  </si>
+  <si>
+    <t>Real analysis exchange</t>
+  </si>
+  <si>
+    <t>Michigan State University Press</t>
+  </si>
+  <si>
+    <t>Macomb, Ill.</t>
+  </si>
+  <si>
+    <t>1930-1219</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>1.1976 -</t>
+  </si>
+  <si>
+    <t>https://msupress.org/journals/real-analysis-exchange/;http://www.stolaf.edu/people/analysis/;https://projecteuclid.org/journals/real-analysis-exchange;http://www.bibliothek.uni-regensburg.de/ezeit/?2206845</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-863;DE-862;DE-21;DE-24;DE-25;DE-Frei129;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-352;DE-355;DE-898;DE-1046;DE-155;DE-859;DE-384;DE-Aug4;DE-37;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Gla1;DE-Wim2;DE-542;DE-841;DE-546;DE-Lg1;DE-634;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-1373;DE-960-1;DE-960-3;DE-523;DE-840</t>
+  </si>
+  <si>
+    <t>2211785-4</t>
+  </si>
+  <si>
+    <t>Kodai mathematical journal</t>
+  </si>
+  <si>
+    <t>Kinokuniya Company</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>1881-5472</t>
+  </si>
+  <si>
+    <t>2630777-7</t>
+  </si>
+  <si>
+    <t>1.1978 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2211785;https://www.jstage.jst.go.jp/browse/kodaimath;https://ProjectEuclid.org/kmj</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-15;DE-15-292;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+  </si>
+  <si>
+    <t>2515434-5</t>
+  </si>
+  <si>
+    <t>International journal of differential equations</t>
+  </si>
+  <si>
+    <t>Hindawi</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>1687-9651</t>
+  </si>
+  <si>
+    <t>2190124-7</t>
+  </si>
+  <si>
+    <t>2009 -</t>
+  </si>
+  <si>
+    <t>https://www.hindawi.com/journals/ijde/;https://projecteuclid.org/ijde;http://www.bibliothek.uni-regensburg.de/ezeit/?2515434</t>
+  </si>
+  <si>
+    <t>LF;LF</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>DE-4;DE-12;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
+  </si>
+  <si>
+    <t>2218231-7</t>
+  </si>
+  <si>
+    <t>Journal of mechanics of materials and structures</t>
+  </si>
+  <si>
+    <t>600;670</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2218231;https://msp.org/jomms;https://msp.org/publications/journals/#jomms;https://msp.org/jomms</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>DE-3;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-95;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-860;DE-824;DE-573;DE-150;DE-830;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+  </si>
+  <si>
+    <t>2523880-2</t>
+  </si>
+  <si>
+    <t>African diaspora journal of mathematics</t>
+  </si>
+  <si>
+    <t>N.S. 1.2004 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2523880;http://math-res-pub.org/adjm;https://projecteuclid.org/DPubS?service=UI&amp;version=1.0&amp;verb=Display&amp;page=past&amp;handle=euclid.adjm</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-15;DE-15-292;DE-16;DE-M347;DE-19;DE-863;DE-862;DE-21;DE-24;DE-25;DE-Frei129;DE-83;DE-90;DE-93;DE-180;DE-Sa18;DE-291;DE-352;DE-898;DE-859;DE-Ma9;DE-Ch1;DE-Gla1;DE-Lg1;DE-944;DE-520;DE-Zwi2;DE-L189;DE-840</t>
+  </si>
+  <si>
+    <t>2532484-6</t>
+  </si>
+  <si>
+    <t>Tsukuba journal of mathematics</t>
+  </si>
+  <si>
+    <t>Univ. of Tsukuba</t>
+  </si>
+  <si>
+    <t>2423-821X</t>
+  </si>
+  <si>
+    <t>3130084-4</t>
+  </si>
+  <si>
+    <t>Volume 1 (December 1977)-</t>
+  </si>
+  <si>
+    <t>https://projecteuclid.org/tkbjm;http://www.bibliothek.uni-regensburg.de/ezeit/?2532484;https://www.jstor.org/journal/tsukjmath</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-90;DE-91;DE-93;DE-180;DE-289;DE-Sa18;DE-291;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-824;DE-Hil2;DE-Ma9;DE-Ch1;DE-Wim2;DE-D120;DE-706;DE-523;DE-751</t>
+  </si>
+  <si>
+    <t>2532847-5</t>
+  </si>
+  <si>
+    <t>Afrika Statistika</t>
+  </si>
+  <si>
+    <t>Saint-Louis, Sénégal</t>
+  </si>
+  <si>
+    <t>FID-MATHE-DE-7;FID-AFRIKA-DE-30</t>
+  </si>
+  <si>
+    <t>1.2005 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2532847;https://projecteuclid.org/as;https://www.ajol.info/index.php/afst/issue/archive;http://www.statpas.org/jas/</t>
+  </si>
+  <si>
+    <t>2541128-7</t>
+  </si>
+  <si>
+    <t>Functiones et approximatio</t>
+  </si>
+  <si>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>0208-6573</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 28.2000 -</t>
+  </si>
+  <si>
+    <t>https://projecteuclid.org/journals/functiones-et-approximatio-commentarii-mathematici;http://www.bibliothek.uni-regensburg.de/ezeit/?2541128</t>
+  </si>
+  <si>
+    <t>2545736-6</t>
+  </si>
+  <si>
+    <t>Nihonkai mathematical journal</t>
+  </si>
+  <si>
+    <t>Niigata</t>
+  </si>
+  <si>
+    <t>Volume 1, number 1 (1990)-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2545736;https://ProjectEuclid.org/nihmj;https://projecteuclid.org/nihmj</t>
+  </si>
+  <si>
+    <t>1468069-5</t>
+  </si>
+  <si>
+    <t>Journal of integral equations and applications</t>
+  </si>
+  <si>
+    <t>The Rocky Mountains Mathematics Consortium</t>
+  </si>
+  <si>
+    <t>Tempe, Arizona</t>
+  </si>
+  <si>
+    <t>1938-2626</t>
+  </si>
+  <si>
+    <t>2928256-1</t>
+  </si>
+  <si>
+    <t>Volume 1, number 1 (winter 1988)-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?1468069;https://ProjectEuclid.org/jiea;https://rmmc.eas.asu.edu/jie/jie.html;https://www.jstor.org/journal/jinteequaappl</t>
+  </si>
+  <si>
+    <t>2558361-X</t>
+  </si>
+  <si>
+    <t>Kyoto journal of mathematics</t>
+  </si>
+  <si>
+    <t>2154-3321</t>
+  </si>
+  <si>
+    <t>2533436-0</t>
+  </si>
+  <si>
+    <t>50.2010 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2558361;https://www.dukeupress.edu/kyoto-journal-of-mathematics;https://projecteuclid.org/kjm</t>
+  </si>
+  <si>
     <t>64</t>
   </si>
   <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-25;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-95;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2461433-6</t>
-  </si>
-  <si>
-    <t>Analysis &amp; PDE</t>
-  </si>
-  <si>
-    <t>1948-206X</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2461433;https://msp.org/apde;https://projecteuclid.org/apde</t>
-  </si>
-  <si>
-    <t>2490756-X</t>
-  </si>
-  <si>
-    <t>nk;b</t>
-  </si>
-  <si>
-    <t>Journal of commutative algebra</t>
-  </si>
-  <si>
-    <t>Rocky Mountain Mathematics Consortium</t>
-  </si>
-  <si>
-    <t>Tempe, Ariz.</t>
-  </si>
-  <si>
-    <t>1939-2346</t>
-  </si>
-  <si>
-    <t>1.2009 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2490756;https://projecteuclid.org/jca;https://rmmc.asu.edu/jca/jca.html;https://www.jstor.org/journal/jcommalge</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-90;DE-91;DE-93;DE-180;DE-289;DE-Sa18;DE-291;DE-384;DE-473;DE-70;DE-517;DE-547;DE-700;DE-703;DE-824;DE-Hil2;DE-Ma9;DE-Ch1;DE-Wim2;DE-D120;DE-706;DE-751</t>
-  </si>
-  <si>
-    <t>1411579-7</t>
-  </si>
-  <si>
-    <t>Geometry &amp; topology</t>
-  </si>
-  <si>
-    <t>Berkeley, Calif.</t>
-  </si>
-  <si>
-    <t>1364-0380</t>
-  </si>
-  <si>
-    <t>1.1997 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?1411579;http://msp.warwick.ac.uk/gt/2014/18-02/;http://ftp.gwdg.de/pub/EMIS/journals/UW/gt/index.html;https://projecteuclid.org/gt;http://msp.org/gt/</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-16;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-468;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-Ch1;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2196271-6</t>
-  </si>
-  <si>
-    <t>Tōhoku mathematical journal</t>
-  </si>
-  <si>
-    <t>Univ.</t>
-  </si>
-  <si>
-    <t>Sendai</t>
-  </si>
-  <si>
-    <t>1881-2015</t>
-  </si>
-  <si>
-    <t>1.Ser. 1.1911/12 - 49.1942/43,2(Febr.); 2.Ser. 1.1949/50,März -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2196271;https://www.jstage.jst.go.jp/browse/tmj;https://ProjectEuclid.org/tmj;https://projecteuclid.org/tmj</t>
-  </si>
-  <si>
-    <t>LF;KW</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2206845-4</t>
-  </si>
-  <si>
-    <t>Real analysis exchange</t>
-  </si>
-  <si>
-    <t>Michigan State University Press</t>
-  </si>
-  <si>
-    <t>Macomb, Ill.</t>
-  </si>
-  <si>
-    <t>1930-1219</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>1.1976 -</t>
-  </si>
-  <si>
-    <t>https://msupress.org/journals/real-analysis-exchange/;http://www.stolaf.edu/people/analysis/;https://projecteuclid.org/journals/real-analysis-exchange;http://www.bibliothek.uni-regensburg.de/ezeit/?2206845</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-863;DE-862;DE-21;DE-24;DE-25;DE-Frei129;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-352;DE-355;DE-898;DE-1046;DE-155;DE-859;DE-384;DE-Aug4;DE-37;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Bn3;DE-D161;DE-L229;DE-D275;DE-Gla1;DE-Rs1;DE-Wim2;DE-542;DE-841;DE-546;DE-Lg1;DE-634;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-1373;DE-960-1;DE-960-3;DE-523;DE-840</t>
-  </si>
-  <si>
-    <t>2211785-4</t>
-  </si>
-  <si>
-    <t>Kodai mathematical journal</t>
-  </si>
-  <si>
-    <t>Kinokuniya Company</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>1881-5472</t>
-  </si>
-  <si>
-    <t>2630777-7</t>
-  </si>
-  <si>
-    <t>1.1978 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2211785;https://www.jstage.jst.go.jp/browse/kodaimath;https://ProjectEuclid.org/kmj</t>
-  </si>
-  <si>
-    <t>KW;KW</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-15;DE-15-292;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2515434-5</t>
-  </si>
-  <si>
-    <t>International journal of differential equations</t>
-  </si>
-  <si>
-    <t>Hindawi</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>1687-9651</t>
-  </si>
-  <si>
-    <t>2190124-7</t>
-  </si>
-  <si>
-    <t>2009 -</t>
-  </si>
-  <si>
-    <t>https://www.hindawi.com/journals/ijde/;https://projecteuclid.org/ijde;http://www.bibliothek.uni-regensburg.de/ezeit/?2515434</t>
-  </si>
-  <si>
-    <t>LF;LF</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2218231-7</t>
-  </si>
-  <si>
-    <t>Journal of mechanics of materials and structures</t>
-  </si>
-  <si>
-    <t>Mathematical Sciences Publ.</t>
-  </si>
-  <si>
-    <t>600;670</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2218231;https://msp.org/jomms;https://msp.org/publications/journals/#jomms;https://msp.org/jomms</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>DE-3;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-95;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-860;DE-824;DE-573;DE-150;DE-830;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2523880-2</t>
-  </si>
-  <si>
-    <t>African diaspora journal of mathematics</t>
-  </si>
-  <si>
-    <t>N.S. 1.2004 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2523880;http://math-res-pub.org/adjm;https://projecteuclid.org/DPubS?service=UI&amp;version=1.0&amp;verb=Display&amp;page=past&amp;handle=euclid.adjm</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-15;DE-15-292;DE-16;DE-M347;DE-19;DE-863;DE-862;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-83;DE-90;DE-93;DE-180;DE-Sa18;DE-291;DE-352;DE-898;DE-859;DE-Ma9;DE-Ch1;DE-Bn3;DE-D161;DE-L229;DE-D275;DE-Gla1;DE-Rs1;DE-Lg1;DE-944;DE-520;DE-Zwi2;DE-L189;DE-840</t>
-  </si>
-  <si>
-    <t>2532484-6</t>
-  </si>
-  <si>
-    <t>Tsukuba journal of mathematics</t>
-  </si>
-  <si>
-    <t>Univ. of Tsukuba</t>
-  </si>
-  <si>
-    <t>2423-821X</t>
-  </si>
-  <si>
-    <t>3130084-4</t>
-  </si>
-  <si>
-    <t>Volume 1 (December 1977)-</t>
-  </si>
-  <si>
-    <t>https://projecteuclid.org/tkbjm;http://www.bibliothek.uni-regensburg.de/ezeit/?2532484;https://www.jstor.org/journal/tsukjmath</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-210;DE-19;DE-20;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-90;DE-91;DE-93;DE-180;DE-289;DE-Sa18;DE-291;DE-384;DE-473;DE-70;DE-517;DE-547;DE-703;DE-824;DE-Hil2;DE-Ma9;DE-Ch1;DE-Wim2;DE-D120;DE-706;DE-751</t>
-  </si>
-  <si>
-    <t>2532847-5</t>
-  </si>
-  <si>
-    <t>Afrika Statistika</t>
-  </si>
-  <si>
-    <t>Saint-Louis, Sénégal</t>
-  </si>
-  <si>
-    <t>FID-MATHE-DE-7;FID-AFRIKA-DE-30</t>
-  </si>
-  <si>
-    <t>1.2005 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2532847;https://projecteuclid.org/as;https://www.ajol.info/index.php/afst/issue/archive;http://www.statpas.org/jas/</t>
-  </si>
-  <si>
-    <t>2541128-7</t>
-  </si>
-  <si>
-    <t>Functiones et approximatio</t>
-  </si>
-  <si>
-    <t>Poznań</t>
-  </si>
-  <si>
-    <t>0208-6573</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 28.2000 -</t>
-  </si>
-  <si>
-    <t>https://projecteuclid.org/journals/functiones-et-approximatio-commentarii-mathematici;http://www.bibliothek.uni-regensburg.de/ezeit/?2541128</t>
-  </si>
-  <si>
-    <t>2545736-6</t>
-  </si>
-  <si>
-    <t>Nihonkai mathematical journal</t>
-  </si>
-  <si>
-    <t>Niigata</t>
-  </si>
-  <si>
-    <t>Volume 1, number 1 (1990)-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2545736;https://ProjectEuclid.org/nihmj;https://projecteuclid.org/nihmj</t>
-  </si>
-  <si>
-    <t>1468069-5</t>
-  </si>
-  <si>
-    <t>Journal of integral equations and applications</t>
-  </si>
-  <si>
-    <t>The Rocky Mountains Mathematics Consortium</t>
-  </si>
-  <si>
-    <t>Tempe, Arizona</t>
-  </si>
-  <si>
-    <t>1938-2626</t>
-  </si>
-  <si>
-    <t>2928256-1</t>
-  </si>
-  <si>
-    <t>Volume 1, number 1 (winter 1988)-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?1468069;https://ProjectEuclid.org/jiea;https://rmmc.eas.asu.edu/jie/jie.html;https://www.jstor.org/journal/jinteequaappl</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-8;DE-9;DE-12;DE-14;DE-16;DE-Ds114;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-24;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-289;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-D120;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-751</t>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
   </si>
   <si>
     <t>1476940-2</t>
@@ -604,31 +805,7 @@
     <t>https://msp.org/pjm/;https://projecteuclid.org/pjm;http://www.bibliothek.uni-regensburg.de/ezeit/?1476940</t>
   </si>
   <si>
-    <t>DE-12;DE-15;DE-15-292;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-180;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2558361-X</t>
-  </si>
-  <si>
-    <t>Kyoto journal of mathematics</t>
-  </si>
-  <si>
-    <t>Duke Univ. Press</t>
-  </si>
-  <si>
-    <t>2154-3321</t>
-  </si>
-  <si>
-    <t>2533436-0</t>
-  </si>
-  <si>
-    <t>50.2010 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2558361;https://www.dukeupress.edu/kyoto-journal-of-mathematics;https://projecteuclid.org/kjm</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+    <t>DE-12;DE-15;DE-15-292;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-89;DE-90;DE-91;DE-861;DE-180;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
   </si>
   <si>
     <t>2572445-9</t>
@@ -664,9 +841,6 @@
     <t>Journal of applied mathematics</t>
   </si>
   <si>
-    <t>Hindawi Publ. Corp.</t>
-  </si>
-  <si>
     <t>Cuyahoga Falls, Ohio;Cairo</t>
   </si>
   <si>
@@ -676,16 +850,10 @@
     <t>050</t>
   </si>
   <si>
-    <t>1.2001 -</t>
-  </si>
-  <si>
     <t>https://www.hindawi.com/journals/jam/;https://projecteuclid.org/jam;http://www.bibliothek.uni-regensburg.de/ezeit/?2578385</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-16;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-943;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-991;DE-706;DE-523;DE-840</t>
+    <t>DE-4;DE-12;DE-16;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-25;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-943;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-991;DE-706;DE-523;DE-840</t>
   </si>
   <si>
     <t>2270595-8</t>
@@ -739,10 +907,37 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2014593;http://cs.ucmo.edu/~mjms/back.html;https://ProjectEuclid.org/mjms</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>DE-4;DE-19;DE-20;DE-83;DE-93;DE-180;DE-Sa18</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DE-4;DE-19;DE-83;DE-93;DE-180;DE-Sa18</t>
+  </si>
+  <si>
+    <t>2606458-3</t>
+  </si>
+  <si>
+    <t>Annals of functional analysis</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Erscheinungsort nicht ermittelbar];Mashhad</t>
+  </si>
+  <si>
+    <t>2008-8752</t>
+  </si>
+  <si>
+    <t>1.2010 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2606458;https://projecteuclid.org/afa;https://www.emis.de/journals/AFA/;https://link.springer.com/journal/43034</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>DE-4;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-19;DE-210;DE-1043;DE-20;DE-862;DE-863;DE-955;DE-21;DE-24;DE-Frei129;DE-Ofb1;DE-Fn1;DE-25;DE-Frei160;DE-Frei26;DE-26;DE-1052;DE-92;DE-29;DE-946;DE-43;DE-66;DE-83;DE-89;DE-90;DE-1028;DE-91;DE-93;DE-Stg259;DE-100;DE-105;DE-953;DE-180;DE-Mh39;DE-Hed2;DE-289;DE-291;DE-Sa18;DE-Sa16;DE-352;DE-898;DE-1050;DE-355;DE-1046;DE-Aug4;DE-859;DE-384;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-860;DE-573;DE-824;DE-D142;DE-Ma9;DE-Gla1;DE-Ch1;DE-752;DE-Lg1;DE-753;DE-972;DE-634;DE-Rav1;DE-Kon4;DE-1147;DE-1090;DE-950;DE-Rt2;DE-958;DE-944;DE-747;DE-991;DE-941;DE-354;DE-D120;DE-520;DE-Zwi2;DE-706;DE-522;DE-F197;DE-L189;DE-525;DE-60;DE-He76;DE-Rt3;DE-526;DE-523;DE-751;DE-1866;DE-Stg258;DE-Mh35;DE-2083;DE-840</t>
   </si>
   <si>
     <t>2015389-2</t>
@@ -778,198 +973,6 @@
     <t>https://msp.org/ant/2021/15-5/;https://projecteuclid.org/journals/algebra-and-number-theory;http://www.bibliothek.uni-regensburg.de/ezeit/?2385233</t>
   </si>
   <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-25;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-95;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2606458-3</t>
-  </si>
-  <si>
-    <t>Annals of functional analysis</t>
-  </si>
-  <si>
-    <t>Springer International Publishing</t>
-  </si>
-  <si>
-    <t>[Erscheinungsort nicht ermittelbar];Mashhad</t>
-  </si>
-  <si>
-    <t>2008-8752</t>
-  </si>
-  <si>
-    <t>1.2010 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2606458;https://projecteuclid.org/afa;https://www.emis.de/journals/AFA/;https://link.springer.com/journal/43034</t>
-  </si>
-  <si>
-    <t>DE-4;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-M347;DE-19;DE-210;DE-1043;DE-20;DE-862;DE-863;DE-955;DE-21;DE-24;DE-Frei129;DE-Ofb1;DE-Fn1;DE-25;DE-Frei160;DE-Frei26;DE-26;DE-1052;DE-92;DE-29;DE-946;DE-43;DE-66;DE-83;DE-90;DE-1028;DE-91;DE-93;DE-Stg259;DE-100;DE-105;DE-953;DE-180;DE-Mh39;DE-Hed2;DE-289;DE-291;DE-Sa18;DE-Sa16;DE-352;DE-898;DE-1050;DE-355;DE-1046;DE-Aug4;DE-859;DE-384;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-860;DE-573;DE-824;DE-D142;DE-D161;DE-D275;DE-Gla1;DE-Bn3;DE-Rs1;DE-L229;DE-Ch1;DE-752;DE-Lg1;DE-753;DE-972;DE-634;DE-Rav1;DE-Kon4;DE-1147;DE-1090;DE-950;DE-Rt2;DE-958;DE-944;DE-747;DE-991;DE-941;DE-D120;DE-520;DE-Zwi2;DE-706;DE-522;DE-F197;DE-L189;DE-525;DE-60;DE-He76;DE-Rt3;DE-526;DE-523;DE-751;DE-1866;DE-Stg258;DE-Mh35;DE-2083;DE-840</t>
-  </si>
-  <si>
-    <t>2037531-1</t>
-  </si>
-  <si>
-    <t>Algebraic &amp; geometric topology</t>
-  </si>
-  <si>
-    <t>1472-2739</t>
-  </si>
-  <si>
-    <t>https://msp.org/agt/2001/1-1/index.xhtml;http://ftp.gwdg.de/pub/EMIS/journals/UW/agt/index.html;https://projecteuclid.org/journals/algebraic-and-geometric-topology;http://www.bibliothek.uni-regensburg.de/ezeit/?2037531</t>
-  </si>
-  <si>
-    <t>KW;KW;KW</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-25;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-95;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-468;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2041597-7</t>
-  </si>
-  <si>
-    <t>Bulletin of the Belgian Mathematical Society - Simon Stevin</t>
-  </si>
-  <si>
-    <t>Soc.</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>1.1994 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2041597;https://projecteuclid.org/journals/bulletin-of-the-belgian-mathematical-society-simon-stevin</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-840</t>
-  </si>
-  <si>
-    <t>2043491-1</t>
-  </si>
-  <si>
-    <t>Topological methods in nonlinear analysis</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Toruń</t>
-  </si>
-  <si>
-    <t>1230-3429</t>
-  </si>
-  <si>
-    <t>1.1993 -</t>
-  </si>
-  <si>
-    <t>https://projecteuclid.org/tmna;http://kpbc.umk.pl/publication/7428;http://apcz.umk.pl/czasopisma/index.php/TMNA/issue/archive;https://www.tmna.ncu.pl/;http://www.bibliothek.uni-regensburg.de/ezeit/?2043491</t>
-  </si>
-  <si>
-    <t>KW;LF;KW</t>
-  </si>
-  <si>
-    <t>2043879-5</t>
-  </si>
-  <si>
-    <t>Hokkaido mathematical journal</t>
-  </si>
-  <si>
-    <t>Sapporo</t>
-  </si>
-  <si>
-    <t>0385-4035</t>
-  </si>
-  <si>
-    <t>1.1972 -</t>
-  </si>
-  <si>
-    <t>https://projecteuclid.org/journals/hokkaido-mathematical-journal;https://www.math.sci.hokudai.ac.jp/hmj/information.html;http://www.bibliothek.uni-regensburg.de/ezeit/?2043879</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2044021-2</t>
-  </si>
-  <si>
-    <t>Notre Dame journal of formal logic</t>
-  </si>
-  <si>
-    <t>1939-0726</t>
-  </si>
-  <si>
-    <t>400;510</t>
-  </si>
-  <si>
-    <t>FID-MATHE-DE-7;7,11;7,1;FID-LING-DE-30</t>
-  </si>
-  <si>
-    <t>1.1960 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2044021;https://ProjectEuclid.org/ndjfl;https://www.dukeupress.edu/Notre-Dame-Journal-of-Formal-Logic;https://projecteuclid.org/ndjfl</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-84;DE-89;DE-90;DE-91;DE-861;DE-93;DE-95;DE-180;DE-Sa18;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-517;DE-521;DE-703;DE-858;DE-1051;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
-  </si>
-  <si>
-    <t>2064801-7</t>
-  </si>
-  <si>
-    <t>Abstract and applied analysis</t>
-  </si>
-  <si>
-    <t>Akron, Ohio</t>
-  </si>
-  <si>
-    <t>1687-0409</t>
-  </si>
-  <si>
-    <t>1.1996 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2064801;https://www.hindawi.com/journals/aaa/;https://projecteuclid.org/aaa</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-16;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-83;DE-90;DE-91;DE-861;DE-93;DE-105;DE-180;DE-943;DE-Sa18;DE-291;DE-355;DE-898;DE-1046;DE-155;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-521;DE-703;DE-858;DE-1051;DE-739;DE-573;DE-824;DE-150;DE-634;DE-991;DE-706;DE-523;DE-840</t>
-  </si>
-  <si>
-    <t>2090365-0</t>
-  </si>
-  <si>
-    <t>Publicacions matemàtiques</t>
-  </si>
-  <si>
-    <t>Universitat Autònoma de Barcelona, Servei de Publicacions;Publicacions de la Universitat Autònoma de Barcelona</t>
-  </si>
-  <si>
-    <t>Bellaterra</t>
-  </si>
-  <si>
-    <t>eng;spa</t>
-  </si>
-  <si>
-    <t>2014-4350</t>
-  </si>
-  <si>
-    <t>2436931-7</t>
-  </si>
-  <si>
-    <t>Volum 32, número 1 (any 1988)-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2090365;https://www.jstor.org/journal/publmate;http://mat.uab.es/pubmat/;https://projecteuclid.org/pm</t>
-  </si>
-  <si>
     <t>2921411-7</t>
   </si>
   <si>
@@ -1039,7 +1042,7 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2826523;https://msp.org/akt;https://projecteuclid.org/akt</t>
   </si>
   <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-19;DE-210;DE-M347;DE-862;DE-863;DE-20;DE-25;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-83;DE-84;DE-89;DE-90;DE-861;DE-91;DE-95;DE-291;DE-355;DE-1046;DE-898;DE-155;DE-384;DE-Aug4;DE-859;DE-37;DE-473;DE-517;DE-521;DE-858;DE-1051;DE-703;DE-705;DE-739;DE-824;DE-573;DE-150;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-12;DE-16;DE-18;DE-210;DE-M347;DE-19;DE-862;DE-863;DE-20;DE-21;DE-25;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-83;DE-84;DE-89;DE-90;DE-861;DE-91;DE-95;DE-291;DE-355;DE-1046;DE-898;DE-155;DE-384;DE-Aug4;DE-859;DE-37;DE-473;DE-517;DE-521;DE-858;DE-1051;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-830;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523</t>
   </si>
 </sst>
 </file>
@@ -1711,13 +1714,13 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1744,7 +1747,7 @@
         <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="U5" t="s">
         <v>55</v>
@@ -1756,15 +1759,15 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1773,13 +1776,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1788,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -1815,13 +1818,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
@@ -1833,15 +1836,15 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1850,13 +1853,13 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1865,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -1892,48 +1895,48 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1942,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -1969,13 +1972,13 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="S8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s">
         <v>55</v>
@@ -1987,15 +1990,15 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2004,13 +2007,13 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -2019,13 +2022,13 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -2046,33 +2049,33 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
         <v>95</v>
       </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>87</v>
-      </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2081,13 +2084,13 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -2096,13 +2099,13 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -2123,33 +2126,33 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2158,13 +2161,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -2173,10 +2176,10 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
@@ -2200,13 +2203,13 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="T11" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s">
         <v>55</v>
@@ -2218,15 +2221,15 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2235,13 +2238,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -2250,7 +2253,7 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -2274,36 +2277,36 @@
         <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2312,13 +2315,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -2327,7 +2330,7 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -2351,93 +2354,93 @@
         <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" t="s">
         <v>135</v>
       </c>
-      <c r="S13" t="s">
-        <v>136</v>
-      </c>
       <c r="T13" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
         <v>141</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
       <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
         <v>143</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
       <c r="R14" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="S14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="U14" t="s">
         <v>55</v>
@@ -2449,30 +2452,30 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -2481,13 +2484,13 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2508,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="S15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
@@ -2526,30 +2529,30 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -2558,13 +2561,13 @@
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -2582,36 +2585,36 @@
         <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W16" t="s">
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2620,13 +2623,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -2635,13 +2638,13 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -2662,13 +2665,13 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T17" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -2680,15 +2683,15 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2697,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2712,10 +2715,10 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
         <v>35</v>
@@ -2739,13 +2742,13 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="S18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s">
         <v>55</v>
@@ -2757,15 +2760,15 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2774,13 +2777,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2789,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -2813,51 +2816,51 @@
         <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="S19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="T19" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Y19" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2866,7 +2869,7 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -2890,36 +2893,36 @@
         <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="R20" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="S20" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="T20" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2928,13 +2931,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2943,10 +2946,10 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
         <v>35</v>
@@ -2970,33 +2973,33 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="S21" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W21" t="s">
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3005,13 +3008,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -3020,13 +3023,13 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -3044,16 +3047,16 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="S22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="T22" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -3065,30 +3068,30 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3097,13 +3100,13 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -3121,16 +3124,16 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="R23" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="S23" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="T23" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
@@ -3142,15 +3145,15 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3159,13 +3162,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -3174,13 +3177,13 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -3201,13 +3204,13 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="S24" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="T24" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="U24" t="s">
         <v>32</v>
@@ -3219,15 +3222,15 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3236,13 +3239,13 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -3251,7 +3254,7 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -3278,10 +3281,10 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="S25" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="T25" t="s">
         <v>32</v>
@@ -3296,15 +3299,15 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3313,13 +3316,13 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3328,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -3355,13 +3358,13 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="U26" t="s">
         <v>32</v>
@@ -3373,30 +3376,30 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3405,13 +3408,13 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -3429,51 +3432,51 @@
         <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="R27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="S27" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="T27" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -3482,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -3506,16 +3509,16 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="R28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="S28" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="T28" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -3527,15 +3530,15 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -3544,13 +3547,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3559,7 +3562,7 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -3586,33 +3589,33 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="S29" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="T29" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W29" t="s">
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -3621,13 +3624,13 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3636,10 +3639,10 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
         <v>35</v>
@@ -3663,33 +3666,33 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="S30" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="T30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3698,13 +3701,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -3713,10 +3716,10 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
         <v>35</v>
@@ -3740,33 +3743,33 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="S31" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="T31" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W31" t="s">
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3775,13 +3778,13 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3790,7 +3793,7 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -3817,13 +3820,13 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="T32" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
@@ -3835,15 +3838,15 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="Y32" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3852,13 +3855,13 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3867,7 +3870,7 @@
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -3894,13 +3897,13 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="T33" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="U33" t="s">
         <v>32</v>
@@ -3912,15 +3915,15 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -3929,13 +3932,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -3944,13 +3947,13 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
@@ -3971,33 +3974,33 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="S34" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="T34" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W34" t="s">
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -4006,13 +4009,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -4021,13 +4024,13 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -4048,13 +4051,13 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="S35" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="T35" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
@@ -4066,30 +4069,30 @@
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -4098,7 +4101,7 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>
@@ -4125,63 +4128,63 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="S36" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="T36" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -4199,16 +4202,16 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T37" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="U37" t="s">
         <v>55</v>
@@ -4220,15 +4223,15 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="Y37" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -4237,13 +4240,13 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -4252,10 +4255,10 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
         <v>35</v>
@@ -4279,13 +4282,13 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T38" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
@@ -4305,7 +4308,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -4314,13 +4317,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -4359,7 +4362,7 @@
         <v>32</v>
       </c>
       <c r="S39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T39" t="s">
         <v>32</v>
@@ -4377,27 +4380,27 @@
         <v>46</v>
       </c>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4406,7 +4409,7 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
         <v>34</v>
@@ -4433,10 +4436,10 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T40" t="s">
         <v>32</v>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -4468,13 +4471,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -4483,7 +4486,7 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
         <v>34</v>
@@ -4510,13 +4513,13 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T41" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s">
         <v>55</v>
@@ -4528,10 +4531,10 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Y41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
